--- a/planning_equipe_format_NN_2026.xlsx
+++ b/planning_equipe_format_NN_2026.xlsx
@@ -28,9 +28,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="[$-fr-FR]ddd d mmm yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-fr-FR]ddd d mmm yy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -69,7 +68,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,11 +81,20 @@
         <color rgb="00DDDDDD"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00DDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -95,15 +103,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -544,8 +559,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -571,29 +586,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46266</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -601,14 +621,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -621,7 +636,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46267</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -629,14 +644,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -649,7 +659,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46268</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -657,14 +667,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -677,7 +682,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46269</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -685,14 +690,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -705,7 +705,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="11" t="n">
         <v>46270</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -720,7 +720,7 @@
       <c r="G10" s="7" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -733,7 +733,7 @@
       <c r="G11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="11" t="n">
         <v>46271</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -748,7 +748,7 @@
       <c r="G12" s="7" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -761,7 +761,7 @@
       <c r="G13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46272</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -769,14 +769,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -789,7 +784,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46273</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -797,14 +792,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -817,7 +807,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46274</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -825,14 +815,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -845,7 +830,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46275</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -853,14 +838,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -873,7 +853,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46276</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -881,14 +861,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -901,7 +876,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="11" t="n">
         <v>46277</v>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -916,7 +891,7 @@
       <c r="G24" s="7" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -929,7 +904,7 @@
       <c r="G25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="11" t="n">
         <v>46278</v>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -944,7 +919,7 @@
       <c r="G26" s="7" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -957,7 +932,7 @@
       <c r="G27" s="8" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46279</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -965,14 +940,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -985,7 +955,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46280</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -993,14 +963,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1013,7 +978,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46281</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1021,14 +986,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1041,7 +1001,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46282</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1049,14 +1009,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1069,7 +1024,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46283</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1077,14 +1032,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1097,7 +1047,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="11" t="n">
         <v>46284</v>
       </c>
       <c r="B38" s="7" t="inlineStr">
@@ -1112,7 +1062,7 @@
       <c r="G38" s="7" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1125,7 +1075,7 @@
       <c r="G39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="11" t="n">
         <v>46285</v>
       </c>
       <c r="B40" s="7" t="inlineStr">
@@ -1140,7 +1090,7 @@
       <c r="G40" s="7" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1153,7 +1103,7 @@
       <c r="G41" s="8" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46286</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1161,14 +1111,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1181,7 +1126,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46287</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1189,14 +1134,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1209,7 +1149,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46288</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1217,14 +1157,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1237,7 +1172,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46289</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1245,14 +1180,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1265,7 +1195,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46290</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1273,14 +1203,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1293,7 +1218,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="11" t="n">
         <v>46291</v>
       </c>
       <c r="B52" s="7" t="inlineStr">
@@ -1308,7 +1233,7 @@
       <c r="G52" s="7" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1321,7 +1246,7 @@
       <c r="G53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="11" t="n">
         <v>46292</v>
       </c>
       <c r="B54" s="7" t="inlineStr">
@@ -1336,7 +1261,7 @@
       <c r="G54" s="7" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1349,7 +1274,7 @@
       <c r="G55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46293</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1357,14 +1282,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1377,7 +1297,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46294</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1385,14 +1305,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1405,7 +1320,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46295</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1413,14 +1328,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1479,8 +1389,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1506,29 +1416,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46296</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1536,14 +1451,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1556,7 +1466,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46297</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1564,14 +1474,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1584,7 +1489,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="11" t="n">
         <v>46298</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -1599,7 +1504,7 @@
       <c r="G6" s="7" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1612,7 +1517,7 @@
       <c r="G7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="11" t="n">
         <v>46299</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1627,7 +1532,7 @@
       <c r="G8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1640,7 +1545,7 @@
       <c r="G9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46300</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1648,14 +1553,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1668,7 +1568,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46301</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1676,14 +1576,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1696,7 +1591,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46302</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1704,14 +1599,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1724,7 +1614,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46303</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1732,14 +1622,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1752,7 +1637,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46304</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1760,14 +1645,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1780,7 +1660,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="11" t="n">
         <v>46305</v>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1795,7 +1675,7 @@
       <c r="G20" s="7" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1808,7 +1688,7 @@
       <c r="G21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="11" t="n">
         <v>46306</v>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1823,7 +1703,7 @@
       <c r="G22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1836,7 +1716,7 @@
       <c r="G23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46307</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1844,14 +1724,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1864,7 +1739,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46308</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1872,14 +1747,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1892,7 +1762,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46309</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1900,14 +1770,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1920,7 +1785,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46310</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1928,14 +1793,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1948,7 +1808,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46311</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1956,14 +1816,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -1976,7 +1831,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="11" t="n">
         <v>46312</v>
       </c>
       <c r="B34" s="7" t="inlineStr">
@@ -1991,7 +1846,7 @@
       <c r="G34" s="7" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2004,7 +1859,7 @@
       <c r="G35" s="8" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="11" t="n">
         <v>46313</v>
       </c>
       <c r="B36" s="7" t="inlineStr">
@@ -2019,7 +1874,7 @@
       <c r="G36" s="7" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2032,7 +1887,7 @@
       <c r="G37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46314</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2040,14 +1895,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2060,7 +1910,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46315</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2068,14 +1918,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2088,7 +1933,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46316</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2096,14 +1941,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2116,7 +1956,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46317</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2124,14 +1964,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2144,7 +1979,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46318</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2152,14 +1987,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2172,7 +2002,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="11" t="n">
         <v>46319</v>
       </c>
       <c r="B48" s="7" t="inlineStr">
@@ -2187,7 +2017,7 @@
       <c r="G48" s="7" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2200,7 +2030,7 @@
       <c r="G49" s="8" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="11" t="n">
         <v>46320</v>
       </c>
       <c r="B50" s="7" t="inlineStr">
@@ -2215,7 +2045,7 @@
       <c r="G50" s="7" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2228,7 +2058,7 @@
       <c r="G51" s="8" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46321</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2236,14 +2066,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2256,7 +2081,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46322</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2264,14 +2089,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2284,7 +2104,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46323</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2292,14 +2112,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2312,7 +2127,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46324</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2320,14 +2135,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2340,7 +2150,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46325</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2348,14 +2158,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2368,7 +2173,7 @@
       <c r="G61" s="5" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="11" t="n">
         <v>46326</v>
       </c>
       <c r="B62" s="7" t="inlineStr">
@@ -2383,7 +2188,7 @@
       <c r="G62" s="7" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2443,8 +2248,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2470,29 +2275,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>46327</v>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -2507,7 +2317,7 @@
       <c r="G2" s="7" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2520,7 +2330,7 @@
       <c r="G3" s="8" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46328</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2528,14 +2338,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2548,7 +2353,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46329</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2556,14 +2361,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2576,7 +2376,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46330</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2584,14 +2384,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2604,7 +2399,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46331</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2612,14 +2407,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2632,7 +2422,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46332</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2640,14 +2430,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2660,7 +2445,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="11" t="n">
         <v>46333</v>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -2675,7 +2460,7 @@
       <c r="G14" s="7" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2688,7 +2473,7 @@
       <c r="G15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="11" t="n">
         <v>46334</v>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -2703,7 +2488,7 @@
       <c r="G16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2716,7 +2501,7 @@
       <c r="G17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46335</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -2724,14 +2509,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2744,7 +2524,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46336</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -2752,14 +2532,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2772,7 +2547,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46337</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -2780,14 +2555,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2800,7 +2570,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46338</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2808,14 +2578,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2828,7 +2593,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46339</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2836,14 +2601,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2856,7 +2616,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="11" t="n">
         <v>46340</v>
       </c>
       <c r="B28" s="7" t="inlineStr">
@@ -2871,7 +2631,7 @@
       <c r="G28" s="7" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2884,7 +2644,7 @@
       <c r="G29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="11" t="n">
         <v>46341</v>
       </c>
       <c r="B30" s="7" t="inlineStr">
@@ -2899,7 +2659,7 @@
       <c r="G30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2912,7 +2672,7 @@
       <c r="G31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46342</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2920,14 +2680,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2940,7 +2695,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46343</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2948,14 +2703,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2968,7 +2718,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46344</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2976,14 +2726,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -2996,7 +2741,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46345</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3004,14 +2749,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3024,7 +2764,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46346</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3032,14 +2772,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3052,7 +2787,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="11" t="n">
         <v>46347</v>
       </c>
       <c r="B42" s="7" t="inlineStr">
@@ -3067,7 +2802,7 @@
       <c r="G42" s="7" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3080,7 +2815,7 @@
       <c r="G43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="11" t="n">
         <v>46348</v>
       </c>
       <c r="B44" s="7" t="inlineStr">
@@ -3095,7 +2830,7 @@
       <c r="G44" s="7" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3108,7 +2843,7 @@
       <c r="G45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46349</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -3116,14 +2851,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3136,7 +2866,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46350</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -3144,14 +2874,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3164,7 +2889,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46351</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -3172,14 +2897,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3192,7 +2912,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46352</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -3200,14 +2920,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3220,7 +2935,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46353</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -3228,14 +2943,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3248,7 +2958,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="11" t="n">
         <v>46354</v>
       </c>
       <c r="B56" s="7" t="inlineStr">
@@ -3263,7 +2973,7 @@
       <c r="G56" s="7" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3276,7 +2986,7 @@
       <c r="G57" s="8" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="11" t="n">
         <v>46355</v>
       </c>
       <c r="B58" s="7" t="inlineStr">
@@ -3291,7 +3001,7 @@
       <c r="G58" s="7" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3304,7 +3014,7 @@
       <c r="G59" s="8" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46356</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3312,14 +3022,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3378,8 +3083,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3405,29 +3110,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46357</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3435,14 +3145,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3455,7 +3160,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46358</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3463,14 +3168,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3483,7 +3183,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46359</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3491,14 +3191,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3511,7 +3206,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46360</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3519,14 +3214,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3539,7 +3229,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="11" t="n">
         <v>46361</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3554,7 +3244,7 @@
       <c r="G10" s="7" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3567,7 +3257,7 @@
       <c r="G11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="11" t="n">
         <v>46362</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3582,7 +3272,7 @@
       <c r="G12" s="7" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3595,7 +3285,7 @@
       <c r="G13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46363</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -3603,14 +3293,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3623,7 +3308,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46364</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -3631,14 +3316,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3651,7 +3331,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46365</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -3659,14 +3339,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3679,7 +3354,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46366</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -3687,14 +3362,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3707,7 +3377,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46367</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -3715,14 +3385,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3735,7 +3400,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="11" t="n">
         <v>46368</v>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -3750,7 +3415,7 @@
       <c r="G24" s="7" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3763,7 +3428,7 @@
       <c r="G25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="11" t="n">
         <v>46369</v>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -3778,7 +3443,7 @@
       <c r="G26" s="7" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3791,7 +3456,7 @@
       <c r="G27" s="8" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46370</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -3799,14 +3464,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3819,7 +3479,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46371</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -3827,14 +3487,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3847,7 +3502,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46372</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -3855,14 +3510,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3875,7 +3525,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46373</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -3883,14 +3533,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3903,7 +3548,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46374</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3911,14 +3556,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3931,7 +3571,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="11" t="n">
         <v>46375</v>
       </c>
       <c r="B38" s="7" t="inlineStr">
@@ -3946,7 +3586,7 @@
       <c r="G38" s="7" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3959,7 +3599,7 @@
       <c r="G39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="11" t="n">
         <v>46376</v>
       </c>
       <c r="B40" s="7" t="inlineStr">
@@ -3974,7 +3614,7 @@
       <c r="G40" s="7" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -3987,7 +3627,7 @@
       <c r="G41" s="8" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46377</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -3995,14 +3635,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4015,7 +3650,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46378</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -4023,14 +3658,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4043,7 +3673,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46379</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -4051,14 +3681,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4071,7 +3696,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46380</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -4079,14 +3704,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4099,7 +3719,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46381</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -4107,14 +3727,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4127,7 +3742,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="11" t="n">
         <v>46382</v>
       </c>
       <c r="B52" s="7" t="inlineStr">
@@ -4142,7 +3757,7 @@
       <c r="G52" s="7" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4155,7 +3770,7 @@
       <c r="G53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="11" t="n">
         <v>46383</v>
       </c>
       <c r="B54" s="7" t="inlineStr">
@@ -4170,7 +3785,7 @@
       <c r="G54" s="7" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4183,7 +3798,7 @@
       <c r="G55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46384</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -4191,14 +3806,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4211,7 +3821,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46385</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -4219,14 +3829,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4239,7 +3844,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46386</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -4247,14 +3852,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4267,7 +3867,7 @@
       <c r="G61" s="5" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="9" t="n">
         <v>46387</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -4275,14 +3875,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4342,8 +3937,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4369,29 +3964,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46023</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4399,27 +3999,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr"/>
-      <c r="D3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E3" s="5" t="inlineStr"/>
       <c r="F3" s="5" t="inlineStr"/>
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46024</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4427,27 +4031,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="11" t="n">
         <v>46025</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -4456,26 +4064,34 @@
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr"/>
-      <c r="D6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E6" s="7" t="inlineStr"/>
       <c r="F6" s="7" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
-      <c r="D7" s="8" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E7" s="8" t="inlineStr"/>
       <c r="F7" s="8" t="inlineStr"/>
       <c r="G7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="11" t="n">
         <v>46026</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4484,26 +4100,34 @@
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46027</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4511,27 +4135,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46028</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4539,14 +4167,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4559,7 +4182,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46029</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -4567,14 +4190,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4587,7 +4205,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46030</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -4595,14 +4213,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4615,7 +4228,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46031</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -4623,14 +4236,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4643,7 +4251,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="11" t="n">
         <v>46032</v>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -4658,7 +4266,7 @@
       <c r="G20" s="7" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4671,7 +4279,7 @@
       <c r="G21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="11" t="n">
         <v>46033</v>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -4686,7 +4294,7 @@
       <c r="G22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4699,7 +4307,7 @@
       <c r="G23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46034</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -4707,14 +4315,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4727,7 +4330,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46035</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -4735,14 +4338,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4755,7 +4353,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46036</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -4763,14 +4361,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4783,7 +4376,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46037</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -4791,14 +4384,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4811,7 +4399,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46038</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -4819,14 +4407,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4839,7 +4422,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="11" t="n">
         <v>46039</v>
       </c>
       <c r="B34" s="7" t="inlineStr">
@@ -4854,7 +4437,7 @@
       <c r="G34" s="7" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4867,7 +4450,7 @@
       <c r="G35" s="8" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="11" t="n">
         <v>46040</v>
       </c>
       <c r="B36" s="7" t="inlineStr">
@@ -4882,7 +4465,7 @@
       <c r="G36" s="7" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4895,7 +4478,7 @@
       <c r="G37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46041</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -4903,14 +4486,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4923,7 +4501,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46042</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -4931,14 +4509,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4951,7 +4524,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46043</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -4959,14 +4532,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -4979,7 +4547,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46044</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -4987,14 +4555,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5007,7 +4570,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46045</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -5015,14 +4578,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5035,7 +4593,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="11" t="n">
         <v>46046</v>
       </c>
       <c r="B48" s="7" t="inlineStr">
@@ -5050,7 +4608,7 @@
       <c r="G48" s="7" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5063,7 +4621,7 @@
       <c r="G49" s="8" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="11" t="n">
         <v>46047</v>
       </c>
       <c r="B50" s="7" t="inlineStr">
@@ -5078,7 +4636,7 @@
       <c r="G50" s="7" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5091,7 +4649,7 @@
       <c r="G51" s="8" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46048</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -5099,14 +4657,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5119,7 +4672,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46049</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -5127,14 +4680,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5147,7 +4695,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46050</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -5155,14 +4703,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5175,7 +4718,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46051</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -5183,14 +4726,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5203,7 +4741,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46052</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -5211,14 +4749,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5231,7 +4764,7 @@
       <c r="G61" s="5" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="11" t="n">
         <v>46053</v>
       </c>
       <c r="B62" s="7" t="inlineStr">
@@ -5246,7 +4779,7 @@
       <c r="G62" s="7" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5306,8 +4839,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5333,29 +4866,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>46054</v>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -5364,26 +4902,34 @@
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr"/>
-      <c r="D2" s="7" t="inlineStr"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E2" s="7" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr"/>
       <c r="G2" s="7" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr"/>
-      <c r="D3" s="8" t="inlineStr"/>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="inlineStr"/>
       <c r="F3" s="8" t="inlineStr"/>
       <c r="G3" s="8" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46055</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -5391,27 +4937,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46056</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -5419,27 +4969,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E7" s="5" t="inlineStr"/>
       <c r="F7" s="5" t="inlineStr"/>
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46057</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -5447,27 +5001,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46058</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -5475,27 +5033,31 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46059</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -5503,14 +5065,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5523,7 +5080,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="11" t="n">
         <v>46060</v>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -5538,7 +5095,7 @@
       <c r="G14" s="7" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5551,7 +5108,7 @@
       <c r="G15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="11" t="n">
         <v>46061</v>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -5566,7 +5123,7 @@
       <c r="G16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5579,7 +5136,7 @@
       <c r="G17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46062</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -5587,14 +5144,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5607,7 +5159,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46063</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -5615,14 +5167,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5635,7 +5182,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46064</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -5643,14 +5190,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5663,7 +5205,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46065</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -5671,14 +5213,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5691,7 +5228,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46066</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -5699,14 +5236,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5719,7 +5251,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="11" t="n">
         <v>46067</v>
       </c>
       <c r="B28" s="7" t="inlineStr">
@@ -5734,7 +5266,7 @@
       <c r="G28" s="7" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5747,7 +5279,7 @@
       <c r="G29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="11" t="n">
         <v>46068</v>
       </c>
       <c r="B30" s="7" t="inlineStr">
@@ -5762,7 +5294,7 @@
       <c r="G30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5775,7 +5307,7 @@
       <c r="G31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46069</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -5783,14 +5315,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5803,7 +5330,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46070</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -5811,14 +5338,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5831,7 +5353,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46071</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -5839,14 +5361,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5859,7 +5376,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46072</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -5867,14 +5384,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5887,7 +5399,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46073</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -5895,14 +5407,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5915,7 +5422,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="11" t="n">
         <v>46074</v>
       </c>
       <c r="B42" s="7" t="inlineStr">
@@ -5930,7 +5437,7 @@
       <c r="G42" s="7" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5943,7 +5450,7 @@
       <c r="G43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="11" t="n">
         <v>46075</v>
       </c>
       <c r="B44" s="7" t="inlineStr">
@@ -5958,7 +5465,7 @@
       <c r="G44" s="7" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5971,7 +5478,7 @@
       <c r="G45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46076</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -5979,14 +5486,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -5999,7 +5501,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46077</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -6007,14 +5509,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6027,7 +5524,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46078</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -6035,14 +5532,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6055,7 +5547,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46079</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -6063,14 +5555,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6083,7 +5570,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46080</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -6091,14 +5578,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6111,7 +5593,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="11" t="n">
         <v>46081</v>
       </c>
       <c r="B56" s="7" t="inlineStr">
@@ -6126,7 +5608,7 @@
       <c r="G56" s="7" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6183,8 +5665,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6210,29 +5692,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>46082</v>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -6247,7 +5734,7 @@
       <c r="G2" s="7" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6260,7 +5747,7 @@
       <c r="G3" s="8" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46083</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -6268,14 +5755,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6288,7 +5770,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46084</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -6296,14 +5778,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6316,7 +5793,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46085</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -6324,14 +5801,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6344,7 +5816,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46086</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -6352,14 +5824,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6372,7 +5839,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46087</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -6380,14 +5847,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6400,7 +5862,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="11" t="n">
         <v>46088</v>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -6415,7 +5877,7 @@
       <c r="G14" s="7" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6428,7 +5890,7 @@
       <c r="G15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="11" t="n">
         <v>46089</v>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -6443,7 +5905,7 @@
       <c r="G16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6456,7 +5918,7 @@
       <c r="G17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46090</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -6464,14 +5926,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6484,7 +5941,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46091</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -6492,14 +5949,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6512,7 +5964,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46092</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -6520,14 +5972,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6540,7 +5987,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46093</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -6548,14 +5995,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6568,7 +6010,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46094</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -6576,14 +6018,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6596,7 +6033,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="11" t="n">
         <v>46095</v>
       </c>
       <c r="B28" s="7" t="inlineStr">
@@ -6611,7 +6048,7 @@
       <c r="G28" s="7" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6624,7 +6061,7 @@
       <c r="G29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="11" t="n">
         <v>46096</v>
       </c>
       <c r="B30" s="7" t="inlineStr">
@@ -6639,7 +6076,7 @@
       <c r="G30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6652,7 +6089,7 @@
       <c r="G31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46097</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -6660,14 +6097,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6680,7 +6112,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46098</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -6688,14 +6120,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6708,7 +6135,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46099</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -6716,14 +6143,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6736,7 +6158,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46100</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -6744,14 +6166,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6764,7 +6181,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46101</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -6772,14 +6189,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6792,7 +6204,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="11" t="n">
         <v>46102</v>
       </c>
       <c r="B42" s="7" t="inlineStr">
@@ -6807,7 +6219,7 @@
       <c r="G42" s="7" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6820,7 +6232,7 @@
       <c r="G43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="11" t="n">
         <v>46103</v>
       </c>
       <c r="B44" s="7" t="inlineStr">
@@ -6835,7 +6247,7 @@
       <c r="G44" s="7" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6848,7 +6260,7 @@
       <c r="G45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46104</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -6856,14 +6268,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6876,7 +6283,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46105</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -6884,14 +6291,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6904,7 +6306,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46106</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -6912,14 +6314,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6932,7 +6329,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46107</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -6940,14 +6337,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6960,7 +6352,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46108</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -6968,14 +6360,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -6988,7 +6375,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="11" t="n">
         <v>46109</v>
       </c>
       <c r="B56" s="7" t="inlineStr">
@@ -7003,7 +6390,7 @@
       <c r="G56" s="7" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7016,7 +6403,7 @@
       <c r="G57" s="8" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="11" t="n">
         <v>46110</v>
       </c>
       <c r="B58" s="7" t="inlineStr">
@@ -7031,7 +6418,7 @@
       <c r="G58" s="7" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7044,7 +6431,7 @@
       <c r="G59" s="8" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46111</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -7052,14 +6439,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7072,7 +6454,7 @@
       <c r="G61" s="5" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="9" t="n">
         <v>46112</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -7080,14 +6462,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7147,8 +6524,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7174,29 +6551,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46113</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -7204,14 +6586,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7224,7 +6601,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46114</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -7232,14 +6609,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7252,7 +6624,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46115</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -7260,14 +6632,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7280,7 +6647,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="11" t="n">
         <v>46116</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -7295,7 +6662,7 @@
       <c r="G8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7308,7 +6675,7 @@
       <c r="G9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="11" t="n">
         <v>46117</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -7323,7 +6690,7 @@
       <c r="G10" s="7" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7336,7 +6703,7 @@
       <c r="G11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46118</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -7344,14 +6711,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7364,7 +6726,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46119</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -7372,14 +6734,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7392,7 +6749,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46120</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -7400,14 +6757,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7420,7 +6772,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46121</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -7428,14 +6780,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7448,7 +6795,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46122</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -7456,14 +6803,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7476,7 +6818,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="11" t="n">
         <v>46123</v>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -7491,7 +6833,7 @@
       <c r="G22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7504,7 +6846,7 @@
       <c r="G23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="11" t="n">
         <v>46124</v>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -7519,7 +6861,7 @@
       <c r="G24" s="7" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7532,7 +6874,7 @@
       <c r="G25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46125</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -7540,14 +6882,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7560,7 +6897,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46126</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -7568,14 +6905,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7588,7 +6920,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46127</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -7596,14 +6928,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7616,7 +6943,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46128</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -7624,14 +6951,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7644,7 +6966,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46129</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -7652,14 +6974,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7672,7 +6989,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="11" t="n">
         <v>46130</v>
       </c>
       <c r="B36" s="7" t="inlineStr">
@@ -7687,7 +7004,7 @@
       <c r="G36" s="7" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7700,7 +7017,7 @@
       <c r="G37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="11" t="n">
         <v>46131</v>
       </c>
       <c r="B38" s="7" t="inlineStr">
@@ -7715,7 +7032,7 @@
       <c r="G38" s="7" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7728,7 +7045,7 @@
       <c r="G39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46132</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -7736,14 +7053,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7756,7 +7068,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46133</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -7764,14 +7076,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7784,7 +7091,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46134</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -7792,14 +7099,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7812,7 +7114,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46135</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -7820,14 +7122,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7840,7 +7137,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46136</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -7848,14 +7145,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7868,7 +7160,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="11" t="n">
         <v>46137</v>
       </c>
       <c r="B50" s="7" t="inlineStr">
@@ -7883,7 +7175,7 @@
       <c r="G50" s="7" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7896,7 +7188,7 @@
       <c r="G51" s="8" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="11" t="n">
         <v>46138</v>
       </c>
       <c r="B52" s="7" t="inlineStr">
@@ -7911,7 +7203,7 @@
       <c r="G52" s="7" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7924,7 +7216,7 @@
       <c r="G53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46139</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -7932,14 +7224,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7952,7 +7239,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46140</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -7960,14 +7247,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -7980,7 +7262,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46141</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -7988,14 +7270,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8008,7 +7285,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46142</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -8016,14 +7293,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8082,8 +7354,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8109,29 +7381,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46143</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -8139,14 +7416,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8159,7 +7431,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="11" t="n">
         <v>46144</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -8174,7 +7446,7 @@
       <c r="G4" s="7" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8187,7 +7459,7 @@
       <c r="G5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="11" t="n">
         <v>46145</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -8202,7 +7474,7 @@
       <c r="G6" s="7" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8215,7 +7487,7 @@
       <c r="G7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46146</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -8223,14 +7495,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8243,7 +7510,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46147</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -8251,14 +7518,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8271,7 +7533,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46148</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -8279,14 +7541,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8299,7 +7556,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46149</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -8307,14 +7564,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8327,7 +7579,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46150</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -8335,14 +7587,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8355,7 +7602,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="11" t="n">
         <v>46151</v>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -8370,7 +7617,7 @@
       <c r="G18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8383,7 +7630,7 @@
       <c r="G19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="11" t="n">
         <v>46152</v>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -8398,7 +7645,7 @@
       <c r="G20" s="7" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8411,7 +7658,7 @@
       <c r="G21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46153</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -8419,14 +7666,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8439,7 +7681,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46154</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -8447,14 +7689,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8467,7 +7704,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46155</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -8475,14 +7712,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8495,7 +7727,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46156</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -8503,14 +7735,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8523,7 +7750,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46157</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -8531,14 +7758,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8551,7 +7773,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="11" t="n">
         <v>46158</v>
       </c>
       <c r="B32" s="7" t="inlineStr">
@@ -8566,7 +7788,7 @@
       <c r="G32" s="7" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8579,7 +7801,7 @@
       <c r="G33" s="8" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="11" t="n">
         <v>46159</v>
       </c>
       <c r="B34" s="7" t="inlineStr">
@@ -8594,7 +7816,7 @@
       <c r="G34" s="7" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8607,7 +7829,7 @@
       <c r="G35" s="8" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46160</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -8615,14 +7837,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8635,7 +7852,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46161</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -8643,14 +7860,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8663,7 +7875,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46162</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -8671,14 +7883,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8691,7 +7898,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46163</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -8699,14 +7906,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8719,7 +7921,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46164</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -8727,14 +7929,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8747,7 +7944,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="11" t="n">
         <v>46165</v>
       </c>
       <c r="B46" s="7" t="inlineStr">
@@ -8762,7 +7959,7 @@
       <c r="G46" s="7" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8775,7 +7972,7 @@
       <c r="G47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="11" t="n">
         <v>46166</v>
       </c>
       <c r="B48" s="7" t="inlineStr">
@@ -8790,7 +7987,7 @@
       <c r="G48" s="7" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8803,7 +8000,7 @@
       <c r="G49" s="8" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46167</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -8811,14 +8008,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8831,7 +8023,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46168</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -8839,14 +8031,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8859,7 +8046,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46169</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -8867,14 +8054,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8887,7 +8069,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46170</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -8895,14 +8077,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8915,7 +8092,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46171</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -8923,14 +8100,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8943,7 +8115,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="11" t="n">
         <v>46172</v>
       </c>
       <c r="B60" s="7" t="inlineStr">
@@ -8958,7 +8130,7 @@
       <c r="G60" s="7" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -8971,7 +8143,7 @@
       <c r="G61" s="8" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="11" t="n">
         <v>46173</v>
       </c>
       <c r="B62" s="7" t="inlineStr">
@@ -8986,7 +8158,7 @@
       <c r="G62" s="7" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9046,8 +8218,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9073,29 +8245,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46174</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9103,14 +8280,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9123,7 +8295,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46175</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -9131,14 +8303,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9151,7 +8318,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46176</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -9159,14 +8326,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9179,7 +8341,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46177</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -9187,14 +8349,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9207,7 +8364,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46178</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -9215,14 +8372,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9235,7 +8387,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="11" t="n">
         <v>46179</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -9250,7 +8402,7 @@
       <c r="G12" s="7" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9263,7 +8415,7 @@
       <c r="G13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="11" t="n">
         <v>46180</v>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -9278,7 +8430,7 @@
       <c r="G14" s="7" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9291,7 +8443,7 @@
       <c r="G15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46181</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -9299,14 +8451,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9319,7 +8466,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46182</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -9327,14 +8474,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9347,7 +8489,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46183</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -9355,14 +8497,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9375,7 +8512,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46184</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -9383,14 +8520,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9403,7 +8535,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46185</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -9411,14 +8543,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9431,7 +8558,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="11" t="n">
         <v>46186</v>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -9446,7 +8573,7 @@
       <c r="G26" s="7" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9459,7 +8586,7 @@
       <c r="G27" s="8" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="11" t="n">
         <v>46187</v>
       </c>
       <c r="B28" s="7" t="inlineStr">
@@ -9474,7 +8601,7 @@
       <c r="G28" s="7" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9487,7 +8614,7 @@
       <c r="G29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46188</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -9495,14 +8622,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9515,7 +8637,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46189</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -9523,14 +8645,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9543,7 +8660,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46190</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -9551,14 +8668,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9571,7 +8683,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46191</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -9579,14 +8691,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9599,7 +8706,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46192</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -9607,14 +8714,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9627,7 +8729,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="11" t="n">
         <v>46193</v>
       </c>
       <c r="B40" s="7" t="inlineStr">
@@ -9642,7 +8744,7 @@
       <c r="G40" s="7" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9655,7 +8757,7 @@
       <c r="G41" s="8" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="11" t="n">
         <v>46194</v>
       </c>
       <c r="B42" s="7" t="inlineStr">
@@ -9670,7 +8772,7 @@
       <c r="G42" s="7" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9683,7 +8785,7 @@
       <c r="G43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46195</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -9691,14 +8793,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9711,7 +8808,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46196</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -9719,14 +8816,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9739,7 +8831,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46197</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -9747,14 +8839,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9767,7 +8854,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46198</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -9775,14 +8862,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9795,7 +8877,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46199</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -9803,14 +8885,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9823,7 +8900,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="11" t="n">
         <v>46200</v>
       </c>
       <c r="B54" s="7" t="inlineStr">
@@ -9838,7 +8915,7 @@
       <c r="G54" s="7" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9851,7 +8928,7 @@
       <c r="G55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="11" t="n">
         <v>46201</v>
       </c>
       <c r="B56" s="7" t="inlineStr">
@@ -9866,7 +8943,7 @@
       <c r="G56" s="7" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9879,7 +8956,7 @@
       <c r="G57" s="8" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46202</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -9887,14 +8964,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9907,7 +8979,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46203</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -9915,14 +8987,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -9981,8 +9048,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10008,29 +9075,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="9" t="n">
         <v>46204</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -10038,14 +9110,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10058,7 +9125,7 @@
       <c r="G3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="9" t="n">
         <v>46205</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10066,14 +9133,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10086,7 +9148,7 @@
       <c r="G5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46206</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -10094,14 +9156,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10114,7 +9171,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="11" t="n">
         <v>46207</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -10129,7 +9186,7 @@
       <c r="G8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10142,7 +9199,7 @@
       <c r="G9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="11" t="n">
         <v>46208</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -10157,7 +9214,7 @@
       <c r="G10" s="7" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10170,7 +9227,7 @@
       <c r="G11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46209</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -10178,14 +9235,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10198,7 +9250,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46210</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -10206,14 +9258,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10226,7 +9273,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="9" t="n">
         <v>46211</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -10234,14 +9281,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10254,7 +9296,7 @@
       <c r="G17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="9" t="n">
         <v>46212</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -10262,14 +9304,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10282,7 +9319,7 @@
       <c r="G19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46213</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -10290,14 +9327,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10310,7 +9342,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="11" t="n">
         <v>46214</v>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -10325,7 +9357,7 @@
       <c r="G22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10338,7 +9370,7 @@
       <c r="G23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="11" t="n">
         <v>46215</v>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -10353,7 +9385,7 @@
       <c r="G24" s="7" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10366,7 +9398,7 @@
       <c r="G25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46216</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -10374,14 +9406,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10394,7 +9421,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46217</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -10402,14 +9429,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10422,7 +9444,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="9" t="n">
         <v>46218</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -10430,14 +9452,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10450,7 +9467,7 @@
       <c r="G31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="9" t="n">
         <v>46219</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -10458,14 +9475,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10478,7 +9490,7 @@
       <c r="G33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46220</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -10486,14 +9498,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10506,7 +9513,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="11" t="n">
         <v>46221</v>
       </c>
       <c r="B36" s="7" t="inlineStr">
@@ -10521,7 +9528,7 @@
       <c r="G36" s="7" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10534,7 +9541,7 @@
       <c r="G37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="11" t="n">
         <v>46222</v>
       </c>
       <c r="B38" s="7" t="inlineStr">
@@ -10549,7 +9556,7 @@
       <c r="G38" s="7" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10562,7 +9569,7 @@
       <c r="G39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46223</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -10570,14 +9577,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10590,7 +9592,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46224</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -10598,14 +9600,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10618,7 +9615,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="9" t="n">
         <v>46225</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -10626,14 +9623,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10646,7 +9638,7 @@
       <c r="G45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="9" t="n">
         <v>46226</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -10654,14 +9646,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10674,7 +9661,7 @@
       <c r="G47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46227</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -10682,14 +9669,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10702,7 +9684,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="11" t="n">
         <v>46228</v>
       </c>
       <c r="B50" s="7" t="inlineStr">
@@ -10717,7 +9699,7 @@
       <c r="G50" s="7" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10730,7 +9712,7 @@
       <c r="G51" s="8" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="11" t="n">
         <v>46229</v>
       </c>
       <c r="B52" s="7" t="inlineStr">
@@ -10745,7 +9727,7 @@
       <c r="G52" s="7" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10758,7 +9740,7 @@
       <c r="G53" s="8" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46230</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -10766,14 +9748,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10786,7 +9763,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46231</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -10794,14 +9771,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10814,7 +9786,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="9" t="n">
         <v>46232</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -10822,14 +9794,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10842,7 +9809,7 @@
       <c r="G59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="9" t="n">
         <v>46233</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -10850,14 +9817,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10870,7 +9832,7 @@
       <c r="G61" s="5" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="9" t="n">
         <v>46234</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -10878,14 +9840,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -10945,8 +9902,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10972,29 +9929,34 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="C1" s="1">
-        <f>'Paramètres_Equipe'!A2</f>
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <f>'Paramètres_Equipe'!A3</f>
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <f>'Paramètres_Equipe'!A4</f>
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <f>'Paramètres_Equipe'!A5</f>
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <f>'Paramètres_Equipe'!A6</f>
-        <v/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Martin Dupont</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Durand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Lefebvre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sophie Martin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thomas Petit</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="11" t="n">
         <v>46235</v>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -11009,7 +9971,7 @@
       <c r="G2" s="7" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11022,7 +9984,7 @@
       <c r="G3" s="8" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="11" t="n">
         <v>46236</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -11037,7 +9999,7 @@
       <c r="G4" s="7" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11050,7 +10012,7 @@
       <c r="G5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="9" t="n">
         <v>46237</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -11058,14 +10020,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11078,7 +10035,7 @@
       <c r="G7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="9" t="n">
         <v>46238</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -11086,14 +10043,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11106,7 +10058,7 @@
       <c r="G9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="9" t="n">
         <v>46239</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -11114,14 +10066,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11134,7 +10081,7 @@
       <c r="G11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="9" t="n">
         <v>46240</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -11142,14 +10089,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11162,7 +10104,7 @@
       <c r="G13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="9" t="n">
         <v>46241</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -11170,14 +10112,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11190,7 +10127,7 @@
       <c r="G15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="11" t="n">
         <v>46242</v>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -11205,7 +10142,7 @@
       <c r="G16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11218,7 +10155,7 @@
       <c r="G17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="11" t="n">
         <v>46243</v>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -11233,7 +10170,7 @@
       <c r="G18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11246,7 +10183,7 @@
       <c r="G19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="9" t="n">
         <v>46244</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -11254,14 +10191,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11274,7 +10206,7 @@
       <c r="G21" s="5" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="9" t="n">
         <v>46245</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -11282,14 +10214,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11302,7 +10229,7 @@
       <c r="G23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="9" t="n">
         <v>46246</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -11310,14 +10237,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11330,7 +10252,7 @@
       <c r="G25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="9" t="n">
         <v>46247</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -11338,14 +10260,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11358,7 +10275,7 @@
       <c r="G27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="9" t="n">
         <v>46248</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -11366,14 +10283,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11386,7 +10298,7 @@
       <c r="G29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="11" t="n">
         <v>46249</v>
       </c>
       <c r="B30" s="7" t="inlineStr">
@@ -11401,7 +10313,7 @@
       <c r="G30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n"/>
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11414,7 +10326,7 @@
       <c r="G31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="11" t="n">
         <v>46250</v>
       </c>
       <c r="B32" s="7" t="inlineStr">
@@ -11429,7 +10341,7 @@
       <c r="G32" s="7" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n"/>
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11442,7 +10354,7 @@
       <c r="G33" s="8" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="9" t="n">
         <v>46251</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -11450,14 +10362,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11470,7 +10377,7 @@
       <c r="G35" s="5" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="9" t="n">
         <v>46252</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -11478,14 +10385,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11498,7 +10400,7 @@
       <c r="G37" s="5" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="9" t="n">
         <v>46253</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -11506,14 +10408,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11526,7 +10423,7 @@
       <c r="G39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="9" t="n">
         <v>46254</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -11534,14 +10431,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11554,7 +10446,7 @@
       <c r="G41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="9" t="n">
         <v>46255</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -11562,14 +10454,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="10" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11582,7 +10469,7 @@
       <c r="G43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="11" t="n">
         <v>46256</v>
       </c>
       <c r="B44" s="7" t="inlineStr">
@@ -11597,7 +10484,7 @@
       <c r="G44" s="7" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n"/>
+      <c r="A45" s="10" t="n"/>
       <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11610,7 +10497,7 @@
       <c r="G45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="11" t="n">
         <v>46257</v>
       </c>
       <c r="B46" s="7" t="inlineStr">
@@ -11625,7 +10512,7 @@
       <c r="G46" s="7" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11638,7 +10525,7 @@
       <c r="G47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="9" t="n">
         <v>46258</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -11646,14 +10533,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="10" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11666,7 +10548,7 @@
       <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="9" t="n">
         <v>46259</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -11674,14 +10556,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="10" t="n"/>
       <c r="B51" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11694,7 +10571,7 @@
       <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="9" t="n">
         <v>46260</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -11702,14 +10579,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11722,7 +10594,7 @@
       <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="9" t="n">
         <v>46261</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -11730,14 +10602,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="10" t="n"/>
       <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11750,7 +10617,7 @@
       <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="9" t="n">
         <v>46262</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -11758,14 +10625,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="10" t="n"/>
       <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11778,7 +10640,7 @@
       <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="11" t="n">
         <v>46263</v>
       </c>
       <c r="B58" s="7" t="inlineStr">
@@ -11793,7 +10655,7 @@
       <c r="G58" s="7" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n"/>
+      <c r="A59" s="10" t="n"/>
       <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11806,7 +10668,7 @@
       <c r="G59" s="8" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="11" t="n">
         <v>46264</v>
       </c>
       <c r="B60" s="7" t="inlineStr">
@@ -11821,7 +10683,7 @@
       <c r="G60" s="7" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n"/>
+      <c r="A61" s="10" t="n"/>
       <c r="B61" s="8" t="inlineStr">
         <is>
           <t>Après-midi</t>
@@ -11834,7 +10696,7 @@
       <c r="G61" s="8" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="9" t="n">
         <v>46265</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -11842,14 +10704,9 @@
           <t>Matin</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n"/>
+      <c r="A63" s="10" t="n"/>
       <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Après-midi</t>
